--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3111.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3111.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.863740994732761</v>
+        <v>1.431604385375977</v>
       </c>
       <c r="B1">
-        <v>2.153343664469956</v>
+        <v>2.406329393386841</v>
       </c>
       <c r="C1">
-        <v>2.724521389089896</v>
+        <v>3.016803741455078</v>
       </c>
       <c r="D1">
-        <v>4.165345620712207</v>
+        <v>3.50059986114502</v>
       </c>
       <c r="E1">
-        <v>0.8329915552102584</v>
+        <v>1.884233355522156</v>
       </c>
     </row>
   </sheetData>
